--- a/datasets/Chamados_Teste.xlsx
+++ b/datasets/Chamados_Teste.xlsx
@@ -121,7 +121,7 @@
     <t>duv sobr camp justific anex numer</t>
   </si>
   <si>
-    <t>numer ofert cumpr estil ord procur luci rib camp solicit implement nov relatori anex si analis mold reun realiz dout procur dire informa dia numer agost numer numerohnumer numer mold ajust reduz term nest memor solicit feit reun supramencion bem aproveit oportun anex arqu word excel model inform ser oferec nov anex relatori numer nov anex dev traz inform sobr tamanh municipi part numer habit inform banc dad ibg b progress percent desp total pessoal sobr receit corr liqu dtp rcl cont anex numer c discrep receit desp orc execut exercici conform inform anex numer d analis receit municipi cont anex numer proporc serv tempor efet comission quadr pessoal municipi cont si dp numer cert atend quant solicit formul aguard nov inform quant cumpr dilig bem disponh esclarec event duv surg equip program</t>
+    <t>numer ofert cumpr estil ord procur luci rib camp solicit implement nov relatori anex si analis mold reun realiz dout procur dire informa dia numer agost numer numer h numer numer mold ajust reduz term nest memor solicit feit reun supramencion bem aproveit oportun anex arqu word excel model inform ser oferec nov anex relatori numer nov anex dev traz inform sobr tamanh municipi part numer habit inform banc dad ibg b progress percent desp total pessoal sobr receit corr liqu dtp rcl cont anex numer c discrep receit desp orc execut exercici conform inform anex numer d analis receit municipi cont anex numer proporc serv tempor efet comission quadr pessoal municipi cont si dp numer cert atend quant solicit formul aguard nov inform quant cumpr dilig bem disponh esclarec event duv surg equip program</t>
   </si>
   <si>
     <t>pc trav</t>
@@ -178,7 +178,7 @@
     <t>lig equip</t>
   </si>
   <si>
-    <t>estabiliz apc sol gnumer numerov tomb ns numer lev agu substitu estabiliz sol numerov tomb numer adicion nobreak nh tomb numer</t>
+    <t>estabiliz apc sol g numer numer va tomb ns numer lev agu substitu estabiliz sol numer va tomb numer adicion nobreak nh tomb numer</t>
   </si>
   <si>
     <t>solicit inclus process identific planilh anex categor gest process document dap mut numer manutenc marc correlacion planilh</t>
@@ -319,7 +319,7 @@
     <t>solicit apoi operac</t>
   </si>
   <si>
-    <t>cord cumpr conform reun realiz numer numer numer numerohnumeromin serv thiag solicit cri relatori distribu analis process conform model anex cient atend ped agradec desd prest sempr atend solicit</t>
+    <t>cord cumpr conform reun realiz numer numer numer numer h numer min serv thiag solicit cri relatori distribu analis process conform model anex cient atend ped agradec desd prest sempr atend solicit</t>
   </si>
   <si>
     <t>cadastr oper cpf numer nom amand cunh lim diaz</t>
@@ -358,7 +358,7 @@
     <t>instal equip mut dap notebook posi numer moni samsung numer</t>
   </si>
   <si>
-    <t>venh atraves dest solic public arqu sit tce realiz cop arqu menu cshtml disponi fs lan appweb releas hom iissqlnumer wwwreleas view correged diretori produc</t>
+    <t>venh atraves dest solic public arqu sit tce realiz cop arqu menu cshtml disponi fs lan appweb releas hom iissql numer wwwreleas view correged diretori produc</t>
   </si>
   <si>
     <t>preenhc sispatr</t>
@@ -397,7 +397,7 @@
     <t>ouvid enc demand segu solicit deliber necessar tent recuper senh ges municipi tenent laurentin cruz envi sispatr fac solicit vai mail pesso usa quer solic alt erac mail cadastr nov mail cadastr karydjaso bol br tend vist ouvid relac diret cidad inform form rapid cl question aguard respost dest memor praz superi dez dia agradec colabor</t>
   </si>
   <si>
-    <t>cri atalh are trabalh past red srv fsnumer contasdegovern</t>
+    <t>cri atalh are trabalh past red srv fs numer contasdegovern</t>
   </si>
   <si>
     <t>precis desfeit substitu inform cont event numer process n numer numer substitu engan tant inform cont event numer quant inser event numer dev ser mant</t>
@@ -436,7 +436,7 @@
     <t>problem pc</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem port ges disponi homolog fs lan appweb hom hom iissqlnumer portalgestorhom</t>
+    <t>venh atraves dest solic public sistem port ges disponi homolog fs lan appweb hom hom iissql numer portalgestorhom</t>
   </si>
   <si>
     <t>configur impres resolv</t>
@@ -484,7 +484,7 @@
     <t>solicit cop process n numer numer tc</t>
   </si>
   <si>
-    <t>receb process carat sele set clic caix dialog sistem apresent err adodb paramet err numeroanumeroccnumer it pod ser encontr colec correspond nom ord solicit sistem processosele conprocessoprioritari asp lin numer</t>
+    <t>receb process carat sele set clic caix dialog sistem apresent err adodb paramet err numer numer cc numer it pod ser encontr colec correspond nom ord solicit sistem processosele conprocessoprioritari asp lin numer</t>
   </si>
   <si>
     <t>usu inform est uma pendenc entr contat pra resolv apos convers identific pend envi inform anex numer usu nao acess realiz solicit inform apos public port numer numer gp tce apen usu gerenci pod atribu permiss</t>
@@ -553,19 +553,19 @@
     <t>usu solicit auxili preench sispatr</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sit tce dispon homolog fs lan appweb releas hom iissqlnumer wwwreleas cas feit mei cop arqu realiz merg branch integration git atual web config vers sistem key versaosistem valu numer numer</t>
+    <t>venh atraves dest solic public sit tce dispon homolog fs lan appweb releas hom iissql numer wwwreleas cas feit mei cop arqu realiz merg branch integration git atual web config vers sistem key versaosistem valu numer numer</t>
   </si>
   <si>
     <t>solicit escolh codig segred tr seguranc sal trein registr tabel especif googl driv imprim entreg escol col etiquet tr seguranc identific numer numer</t>
   </si>
   <si>
-    <t>cord cumpr envi orc repar break regist sob tomb numer numer numer numer numer bnumer consider cust individ repar cad break correspond menos numer val break nov equip boa qual sugir aprov pres orc</t>
+    <t>cord cumpr envi orc repar break regist sob tomb numer numer numer numer numer b numer consider cust individ repar cad break correspond menos numer val break nov equip boa qual sugir aprov pres orc</t>
   </si>
   <si>
     <t>anex numer receit numer bimestr cadastr receit possivel visual registr mesm receit porem font difer verific balanc orcament registr form detalh</t>
   </si>
   <si>
-    <t>venh atraves dest solic public seguint arqu sistem esic arqu cadastr php local fs lan appweb hom hom iissqlnumer esichom client acompanh diretori ambi produc atencios</t>
+    <t>venh atraves dest solic public seguint arqu sistem esic arqu cadastr php local fs lan appweb hom hom iissql numer esichom client acompanh diretori ambi produc atencios</t>
   </si>
   <si>
     <t>solicit valid not fiscal empr fa lim</t>
@@ -583,7 +583,7 @@
     <t>aprov solicit funcional codig numer nom ig barr so</t>
   </si>
   <si>
-    <t>prez senh solicit alt erac enderec eletron marci mar mprn mp br mmnumerosc gmail vez licenc medic desd principi dess ano acess aquel caix postal ambi trabalh nom marci luiz cost mar cpf numer numer numer</t>
+    <t>prez senh solicit alt erac enderec eletron marci mar mprn mp br mm numer sc gmail vez licenc medic desd principi dess ano acess aquel caix postal ambi trabalh nom marci luiz cost mar cpf numer numer numer</t>
   </si>
   <si>
     <t>alt er senh are restrit</t>
@@ -634,10 +634,10 @@
     <t>ord dire cumpr estil solicit substitu nobreak tomb n numer utiliz coorden fiscal cont gest serv lariss salient diret informa atest necess substitu</t>
   </si>
   <si>
-    <t>cumpr estil solicit cadastr audi control extern ana carolin leit ucho alme matricul numer numer cpf numer numer numer are restrit tce rn vincul perfil coorden fiscal cont gest dam fge cadastr biometr acess sistem control pont acess past srv fsnumer dam fge oportun solicit aind conced perfil acess as funcional atribu audi control extern sergi jon silv matricul numer numer cpf numer numer numer</t>
-  </si>
-  <si>
-    <t>consig utiliz pje tent consult process trtnumer</t>
+    <t>cumpr estil solicit cadastr audi control extern ana carolin leit ucho alme matricul numer numer cpf numer numer numer are restrit tce rn vincul perfil coorden fiscal cont gest dam fge cadastr biometr acess sistem control pont acess past srv fs numer dam fge oportun solicit aind conced perfil acess as funcional atribu audi control extern sergi jon silv matricul numer numer cpf numer numer numer</t>
+  </si>
+  <si>
+    <t>consig utiliz pje tent consult process trt numer</t>
   </si>
   <si>
     <t>identific err colun val realiz exercici balanc orcamentari receit identific inclus val estranh vind arqu import seg arqu analis</t>
@@ -718,7 +718,7 @@
     <t>ord dire ato pessoal sra sheyl yusk cunh n s c roch cord cumpr conform reun realiz numer numer numer diret informa solicit inclus pontual melh funcional abaix descrit numer funcional cadastr process relacion ped inclu melh sent permit inserc planilh numer colun colun numer ano process cont grand quant numer process ser relacion process relacion modific necessar identific trat process apur respons tip apr fiscal concurs tip fco relacion cad admiss tip as cient atend ped agradec desd prest sempr atend solicit</t>
   </si>
   <si>
-    <t>realiz pesquis merc numer und estabiliz numerov</t>
+    <t>realiz pesquis merc numer und estabiliz numer va</t>
   </si>
   <si>
     <t>usu solicit atalh past trabalh</t>
@@ -751,7 +751,7 @@
     <t>venh atraves dest solic execuc script anex atual envi lrf duplic seg anex script</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem sit tce disponi homolog fs lan appweb releas hom iissqlnumer wwwreleas alt er linh add key versaosistem valu numer numer add key versaosistem valu numer numer arqu webconfig</t>
+    <t>venh atraves dest solic public sistem sit tce disponi homolog fs lan appweb releas hom iissql numer wwwreleas alt er linh add key versaosistem valu numer numer add key versaosistem valu numer numer arqu webconfig</t>
   </si>
   <si>
     <t>alt erac oper cpf numer nom mar conce cost silv</t>
@@ -1027,7 +1027,7 @@
     <t>configur proje reun</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem etc api fs lan appweb hom hom iissqlnumer portaletceapihom copi past config sobrescrev arqu web config</t>
+    <t>venh atraves dest solic public sistem etc api fs lan appweb hom hom iissql numer portaletceapihom copi past config sobrescrev arqu web config</t>
   </si>
   <si>
     <t>verific histor acess catrac</t>
@@ -1066,7 +1066,7 @@
     <t>instal equip mut dap nobreak maxxipow ii numer</t>
   </si>
   <si>
-    <t>solicit cri cham abert recorr seman sext feir numeroh seguint descr realiz atual pacot adob acsoc coloc joa mar respons ruteni atend fern souz silv solicit</t>
+    <t>solicit cri cham abert recorr seman sext feir numer h seguint descr realiz atual pacot adob acsoc coloc joa mar respons ruteni atend fern souz silv solicit</t>
   </si>
   <si>
     <t>usu inform token reconhec</t>
@@ -1078,7 +1078,7 @@
     <t>consig acess legil terc vez problem ocorr</t>
   </si>
   <si>
-    <t>break up numerov one tomb numer ns numer</t>
+    <t>break up numer va one tomb numer ns numer</t>
   </si>
   <si>
     <t>err memor tonn</t>
@@ -1135,7 +1135,7 @@
     <t>sr dire cumpr sirv pres solic autor acess usuar vilian cass cost brit cpf numer numer numer estagiar set dai are restrit bem solicit espelh perfil estagi afons silv oliv mat numer</t>
   </si>
   <si>
-    <t>tce api fs lan appweb prd dmz appnumer tceap arqu web config permiss permit visual alt erac arqu possivel faz deploy aplic man git</t>
+    <t>tce api fs lan appweb prd dmz app numer tceap arqu web config permiss permit visual alt erac arqu possivel faz deploy aplic man git</t>
   </si>
   <si>
     <t>substitu ton impres</t>
@@ -1162,7 +1162,7 @@
     <t>boa tard exclu arqu excel quer past set dap adm precis recup lo qued energ dur period manha arqu fic salv automatic document anex inform ond encontr arqu</t>
   </si>
   <si>
-    <t>cadastr pesso inidone cpf numer nom rychardson maced bernard orig inform justic feder prim inst numeroa var</t>
+    <t>cadastr pesso inidone cpf numer nom rychardson maced bernard orig inform justic feder prim inst numer a var</t>
   </si>
   <si>
     <t>boa tard solicit inform dat me ano consorci public intermunicip rio grand nort cnpj numer numer numer numer cadastr efetiv port ges si</t>
@@ -1180,7 +1180,7 @@
     <t>ap oacut s clic bann curs samu dispon are restrit aparec err cont anex exp caminh arqu ip vers framework local fs not perceb err mostr falh seguranc sistem tce</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistemaport ges disponi fs lan appweb hom hom iissqlnumer portalgestorhom</t>
+    <t>venh atraves dest solic public sistemaport ges disponi fs lan appweb hom hom iissql numer portalgestorhom</t>
   </si>
   <si>
     <t>dev cumpr estil solicit implant comput tce rn ecofont estil font desenvolv espec econom tint impress trat font open sourc restr comerc uso hav pratic perd qual impress</t>
@@ -1246,7 +1246,7 @@
     <t>cumpr estil ord excelent conselh substitut antoni ed souz sant solicit habilit ferrament vot monocra sistem process eletron fisic gabinet</t>
   </si>
   <si>
-    <t>dev cumpr consider minist public trabalh requisit cop process nnumer numer tc consider process extens ord chef gabinet presid encaminh pres memor diret informa cri process mid extern</t>
+    <t>dev cumpr consider minist public trabalh requisit cop process n numer numer tc consider process extens ord chef gabinet presid encaminh pres memor diret informa cri process mid extern</t>
   </si>
   <si>
     <t>usu solicit transfer equip abaix plen auditori microfon yog tomb numer tomb numer tomb numer tomb numer tomb numer tomb numer tomb numer tomb numer tomb numer tomb numer tomb numer microfon novik tomb numer</t>
@@ -1603,7 +1603,7 @@
     <t>err falt registr tabel chav process si numer boa tard arqu ger aqu mai problem seg backup arqu envi comprov ger</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem sit tce dispon homolog fs lan appweb releas hom iissqlnumer wwwreleas</t>
+    <t>venh atraves dest solic public sistem sit tce dispon homolog fs lan appweb releas hom iissql numer wwwreleas</t>
   </si>
   <si>
     <t>ofert cumpr estil ord procur luci rib camp solicit instal nov impres nest gabinet</t>
@@ -1612,7 +1612,7 @@
     <t>reset senh usuari</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem siaianalis api disponi fs lan appweb hom hom iissqlnumer siaianaliseapihom substitu past config arqu web config</t>
+    <t>venh atraves dest solic public sistem siaianalis api disponi fs lan appweb hom hom iissql numer siaianaliseapihom substitu past config arqu web config</t>
   </si>
   <si>
     <t>vim presenc voss senh solic inclus icon reserv auditori are restrit semelh cardapi restaurant fim divulg agend refer espac serv acrescent inserc arqu format pdf fic carg dest diret</t>
@@ -1630,7 +1630,7 @@
     <t>configur notebook sal reun estagiar amand poi estaca dispon sal dap adm</t>
   </si>
   <si>
-    <t>venh atraves dest solic public sistem siaianalis fs lan appweb hom hom iissqlnumer siaianalisehom bast apen copi past app sobrescrev past environment siaianalis api fs lan appweb hom hom iissqlnumer siaianaliseapihom disponi homolog</t>
+    <t>venh atraves dest solic public sistem siaianalis fs lan appweb hom hom iissql numer siaianalisehom bast apen copi past app sobrescrev past environment siaianalis api fs lan appweb hom hom iissql numer siaianaliseapihom disponi homolog</t>
   </si>
   <si>
     <t>configur term oper</t>
